--- a/submission_last/ivanliu1989_AfSIS_models_compare.xlsx
+++ b/submission_last/ivanliu1989_AfSIS_models_compare.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>SOC</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Best - SavitzkyGolay</t>
+  </si>
+  <si>
+    <t>FirstDerivatives(row) - Best</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SavitzkyGolay(row/1113/TFTTT) - Best</t>
   </si>
 </sst>
 </file>
@@ -98,8 +104,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -134,7 +144,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -148,6 +158,8 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -161,6 +173,8 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B22"/>
+  <dimension ref="A3:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -474,19 +488,22 @@
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
     <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="14" customHeight="1">
+    <row r="3" spans="1:5" ht="14" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,7 +511,7 @@
         <v>5.663726E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -502,7 +519,7 @@
         <v>6.7349339999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -510,7 +527,7 @@
         <v>1.2326419999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +535,7 @@
         <v>8.3654630000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -526,50 +543,84 @@
         <v>5.1537569999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>0.25936169999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.25947340000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>0.37037100000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.37434919999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>0.39739289999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.39391599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1">
         <v>0.32309549999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.3196444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>0.30762830000000002</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.3076198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -618,11 +669,44 @@
         <v>0.30973440000000002</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/submission_last/ivanliu1989_AfSIS_models_compare.xlsx
+++ b/submission_last/ivanliu1989_AfSIS_models_compare.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2060" windowWidth="23840" windowHeight="14960"/>
+    <workbookView xWindow="1245" yWindow="2055" windowWidth="23835" windowHeight="14955"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
@@ -480,30 +480,30 @@
   <dimension ref="A3:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="14" customHeight="1">
+    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,7 +511,7 @@
         <v>5.663726E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,7 +519,7 @@
         <v>6.7349339999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -527,7 +527,7 @@
         <v>1.2326419999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>8.3654630000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -543,7 +543,7 @@
         <v>5.1537569999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -553,7 +553,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,7 +567,7 @@
         <v>0.25947340000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,7 +581,7 @@
         <v>0.37434919999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0.39391599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>0.3196444</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -623,13 +623,13 @@
         <v>0.3076198</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,7 +637,7 @@
         <v>0.25911329999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0.36950949999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -653,7 +653,7 @@
         <v>0.39778279999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>0.32287440000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -669,35 +669,50 @@
         <v>0.30973440000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="1">
+        <v>5.9708440000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="1">
+        <v>0.44523699999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="1">
+        <v>1.8184079999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" s="1">
+        <v>0.24966940000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9.1087920000000003E-2</v>
       </c>
     </row>
   </sheetData>
